--- a/2_database/targetFeature.xlsx
+++ b/2_database/targetFeature.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/mestrado/base_de_dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E99AE4-549C-AF4C-A960-47111B52E99F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A833226C-8992-4347-9028-A411B3C5C4AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
   <si>
     <t>programa</t>
   </si>
@@ -187,6 +187,51 @@
   </si>
   <si>
     <t>9034-Paraíba do Sul-RJ.pdf</t>
+  </si>
+  <si>
+    <t>9037-Poço Branco-RN.pdf</t>
+  </si>
+  <si>
+    <t>9038-Alto Paraíso-RO.pdf</t>
+  </si>
+  <si>
+    <t>9039-Normandia-RR.pdf</t>
+  </si>
+  <si>
+    <t>9040-Encantado-RS.pdf</t>
+  </si>
+  <si>
+    <t>9041-Glorinha-RS.pdf</t>
+  </si>
+  <si>
+    <t>9042-Minas do Leão-RS.pdf</t>
+  </si>
+  <si>
+    <t>9043-Pinhal da Serra-RS.pdf</t>
+  </si>
+  <si>
+    <t>9044-Putinga-RS.pdf</t>
+  </si>
+  <si>
+    <t>9045-Governador Celso Ramos-SC.pdf</t>
+  </si>
+  <si>
+    <t>9046-Ibicaré-SC.pdf</t>
+  </si>
+  <si>
+    <t>9047-Navegantes-SC.pdf</t>
+  </si>
+  <si>
+    <t>9048-Barra dos Coqueiros-SE.pdf</t>
+  </si>
+  <si>
+    <t>9049-Maruim-SE.pdf</t>
+  </si>
+  <si>
+    <t>9050-Porto da Folha-SE.pdf</t>
+  </si>
+  <si>
+    <t>9051-Barueri-SP.pdf</t>
   </si>
 </sst>
 </file>
@@ -630,15 +675,15 @@
   <dimension ref="A1:F539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="11" customWidth="1"/>
@@ -1526,120 +1571,273 @@
       <c r="B48" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="8">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="8">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="8">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1647,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>

--- a/2_database/targetFeature.xlsx
+++ b/2_database/targetFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A833226C-8992-4347-9028-A411B3C5C4AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B191C76A-86B0-5F4E-88D7-F18BEA79CAB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
   <si>
     <t>programa</t>
   </si>
@@ -232,6 +232,60 @@
   </si>
   <si>
     <t>9051-Barueri-SP.pdf</t>
+  </si>
+  <si>
+    <t>9052-Guararema-SP.pdf</t>
+  </si>
+  <si>
+    <t>9053-Praia Grande-SP.pdf</t>
+  </si>
+  <si>
+    <t>9054-São Bernardo do Campo-SP.pdf</t>
+  </si>
+  <si>
+    <t>9055-São Paulo-SP.pdf</t>
+  </si>
+  <si>
+    <t>9056-Santa Maria do Tocantins-TO.pdf</t>
+  </si>
+  <si>
+    <t>9057-Campina Grande-PB.pdf</t>
+  </si>
+  <si>
+    <t>9802-Campo Verde-MT.pdf</t>
+  </si>
+  <si>
+    <t>9824-Cornélio Procópio-PR.pdf</t>
+  </si>
+  <si>
+    <t>9947-Cachoeiro de Itapemirim-ES.pdf</t>
+  </si>
+  <si>
+    <t>9958-Itapeva-SP.pdf</t>
+  </si>
+  <si>
+    <t>10009-Cianorte-PR.pdf</t>
+  </si>
+  <si>
+    <t>10046-Araras-SP.pdf</t>
+  </si>
+  <si>
+    <t>10062-Arapiraca-AL.pdf</t>
+  </si>
+  <si>
+    <t>10084-Palmeira dos Índios-AL.pdf</t>
+  </si>
+  <si>
+    <t>10088-Araçatuba-SP.pdf</t>
+  </si>
+  <si>
+    <t>10089-Hortolândia-SP.pdf</t>
+  </si>
+  <si>
+    <t>10090-Salinas-MG.pdf</t>
+  </si>
+  <si>
+    <t>ciclo_4</t>
   </si>
 </sst>
 </file>
@@ -675,8 +729,8 @@
   <dimension ref="A1:F539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1844,6 +1898,18 @@
       <c r="B63" t="s">
         <v>1</v>
       </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -1852,95 +1918,299 @@
       <c r="B64" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1</v>
+      </c>
+      <c r="F78" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>

--- a/2_database/targetFeature.xlsx
+++ b/2_database/targetFeature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas.bruscato/Dropbox/Github-Lucas/master/2_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B191C76A-86B0-5F4E-88D7-F18BEA79CAB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF8B519-00B7-174A-9968-7CD495031A43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{0731E9B8-F644-AB4E-B15E-B739A4C98347}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="114">
   <si>
     <t>programa</t>
   </si>
@@ -286,6 +286,90 @@
   </si>
   <si>
     <t>ciclo_4</t>
+  </si>
+  <si>
+    <t>10091-Piancó-PB.pdf</t>
+  </si>
+  <si>
+    <t>10193-Goianinha-RN.pdf</t>
+  </si>
+  <si>
+    <t>10237-Guarapuava-PR.pdf</t>
+  </si>
+  <si>
+    <t>10238-Umuarama-PR.pdf</t>
+  </si>
+  <si>
+    <t>10243-Januária-MG.pdf</t>
+  </si>
+  <si>
+    <t>10245-Nova Xavantina-MT.pdf</t>
+  </si>
+  <si>
+    <t>10247-Barbacena-MG.pdf</t>
+  </si>
+  <si>
+    <t>10279-Içara-SC.pdf</t>
+  </si>
+  <si>
+    <t>10281-Araguaína-TO.pdf</t>
+  </si>
+  <si>
+    <t>10286-Cascavel-PR.pdf</t>
+  </si>
+  <si>
+    <t>10287-Londrina-PR.pdf</t>
+  </si>
+  <si>
+    <t>10289-Estância-SE.pdf</t>
+  </si>
+  <si>
+    <t>10291-Criciúma-SC.pdf</t>
+  </si>
+  <si>
+    <t>10292-Lagarto-SE.pdf</t>
+  </si>
+  <si>
+    <t>10305-Gurupi-TO.pdf</t>
+  </si>
+  <si>
+    <t>10308-Canguaretama-RN.pdf</t>
+  </si>
+  <si>
+    <t>10309-Sete Lagoas-MG.pdf</t>
+  </si>
+  <si>
+    <t>10310-Passos-MG.pdf</t>
+  </si>
+  <si>
+    <t>10311-Manhuaçu-MG.pdf</t>
+  </si>
+  <si>
+    <t>10312-Juiz de Fora-MG.pdf</t>
+  </si>
+  <si>
+    <t>10313-Barbalha-CE.pdf</t>
+  </si>
+  <si>
+    <t>10314-Goiás-GO.pdf</t>
+  </si>
+  <si>
+    <t>10315-Teófilo Otoni-MG.pdf</t>
+  </si>
+  <si>
+    <t>10317-Santo Ângelo-RS.pdf</t>
+  </si>
+  <si>
+    <t>10318-Curvelo-MG.pdf</t>
+  </si>
+  <si>
+    <t>10319-Cruz Alta-RS.pdf</t>
+  </si>
+  <si>
+    <t>10320-Bagé-RS.pdf</t>
+  </si>
+  <si>
+    <t>10321-Uruguaiana-RS.pdf</t>
   </si>
 </sst>
 </file>
@@ -729,8 +813,8 @@
   <dimension ref="A1:F539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2214,483 +2298,960 @@
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1</v>
+      </c>
+      <c r="F80" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="8">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="8">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>97</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>85</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5">
+        <v>1</v>
+      </c>
+      <c r="F93" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="8">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5">
+        <v>1</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>85</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
